--- a/results/I2_N10_T100_C275_0_P6_res.xlsx
+++ b/results/I2_N10_T100_C275_0_P6_res.xlsx
@@ -473,7 +473,7 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>639.3650064553691</v>
+        <v>896.5734176329556</v>
       </c>
     </row>
     <row r="4">
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.01699995994567871</v>
+        <v>0.0130000114440918</v>
       </c>
     </row>
     <row r="5">
@@ -503,7 +503,7 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>48.12500645536537</v>
+        <v>47.83341763294923</v>
       </c>
     </row>
     <row r="7">
@@ -513,7 +513,7 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>4.269332500520426</v>
+        <v>5.336665625650533</v>
       </c>
     </row>
     <row r="8">
@@ -523,7 +523,7 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>4.269332500520426</v>
+        <v>5.336665625650533</v>
       </c>
     </row>
     <row r="9">
@@ -533,7 +533,7 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>226.0800000000038</v>
+        <v>498.0700000000065</v>
       </c>
     </row>
     <row r="10">
@@ -543,7 +543,7 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>365.16</v>
+        <v>350.67</v>
       </c>
     </row>
   </sheetData>
@@ -557,7 +557,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C5"/>
+  <dimension ref="A1:C6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -620,9 +620,20 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="C5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>5</v>
+      </c>
+      <c r="C6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -700,7 +711,7 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
         <v>1</v>
@@ -711,7 +722,7 @@
         <v>2</v>
       </c>
       <c r="B6" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="C6" t="n">
         <v>1</v>
@@ -722,7 +733,7 @@
         <v>3</v>
       </c>
       <c r="B7" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -733,7 +744,7 @@
         <v>4</v>
       </c>
       <c r="B8" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="C8" t="n">
         <v>1</v>
@@ -755,7 +766,7 @@
         <v>6</v>
       </c>
       <c r="B10" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C10" t="n">
         <v>1</v>
@@ -777,7 +788,7 @@
         <v>8</v>
       </c>
       <c r="B12" t="n">
-        <v>1</v>
+        <v>12</v>
       </c>
       <c r="C12" t="n">
         <v>1</v>
@@ -788,7 +799,7 @@
         <v>9</v>
       </c>
       <c r="B13" t="n">
-        <v>10</v>
+        <v>7</v>
       </c>
       <c r="C13" t="n">
         <v>1</v>
@@ -799,7 +810,7 @@
         <v>10</v>
       </c>
       <c r="B14" t="n">
-        <v>11</v>
+        <v>1</v>
       </c>
       <c r="C14" t="n">
         <v>1</v>
@@ -846,7 +857,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -857,7 +868,7 @@
         <v>2</v>
       </c>
       <c r="B3" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C3" t="n">
         <v>1</v>
@@ -868,7 +879,7 @@
         <v>3</v>
       </c>
       <c r="B4" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C4" t="n">
         <v>1</v>
@@ -901,7 +912,7 @@
         <v>6</v>
       </c>
       <c r="B7" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="C7" t="n">
         <v>1</v>
@@ -923,7 +934,7 @@
         <v>8</v>
       </c>
       <c r="B9" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="C9" t="n">
         <v>1</v>
@@ -1028,7 +1039,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>30</v>
+        <v>39.3596524473688</v>
       </c>
     </row>
     <row r="4">
@@ -1036,7 +1047,7 @@
         <v>2</v>
       </c>
       <c r="B4" t="n">
-        <v>15</v>
+        <v>2.580484450641009</v>
       </c>
     </row>
     <row r="5">
@@ -1044,7 +1055,7 @@
         <v>3</v>
       </c>
       <c r="B5" t="n">
-        <v>15</v>
+        <v>30</v>
       </c>
     </row>
     <row r="6">
@@ -1052,7 +1063,7 @@
         <v>4</v>
       </c>
       <c r="B6" t="n">
-        <v>30</v>
+        <v>35.00919155153804</v>
       </c>
     </row>
     <row r="7">
@@ -1068,7 +1079,7 @@
         <v>6</v>
       </c>
       <c r="B8" t="n">
-        <v>15.34885527085025</v>
+        <v>8.251037116711927</v>
       </c>
     </row>
     <row r="9">
@@ -1076,7 +1087,7 @@
         <v>7</v>
       </c>
       <c r="B9" t="n">
-        <v>35.47120644830736</v>
+        <v>35.17863316307213</v>
       </c>
     </row>
     <row r="10">
@@ -1084,7 +1095,7 @@
         <v>8</v>
       </c>
       <c r="B10" t="n">
-        <v>22.73957918667877</v>
+        <v>37.32144153802307</v>
       </c>
     </row>
     <row r="11">
@@ -1100,7 +1111,7 @@
         <v>10</v>
       </c>
       <c r="B12" t="n">
-        <v>33.35343867541883</v>
+        <v>36.74896288328807</v>
       </c>
     </row>
     <row r="13">
@@ -1108,7 +1119,7 @@
         <v>11</v>
       </c>
       <c r="B13" t="n">
-        <v>37.45822856041903</v>
+        <v>44.69631807301934</v>
       </c>
     </row>
     <row r="14">
@@ -1116,7 +1127,7 @@
         <v>12</v>
       </c>
       <c r="B14" t="n">
-        <v>40.79840527524938</v>
+        <v>42.53774290968479</v>
       </c>
     </row>
     <row r="15">
@@ -1124,7 +1135,7 @@
         <v>13</v>
       </c>
       <c r="B15" t="n">
-        <v>40.4587509343245</v>
+        <v>40.16617764908928</v>
       </c>
     </row>
   </sheetData>
@@ -1138,7 +1149,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:D6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1173,7 +1184,7 @@
         <v>1</v>
       </c>
       <c r="B2" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C2" t="n">
         <v>1</v>
@@ -1187,7 +1198,7 @@
         <v>1</v>
       </c>
       <c r="B3" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C3" t="n">
         <v>2</v>
@@ -1201,10 +1212,10 @@
         <v>1</v>
       </c>
       <c r="B4" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C4" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="D4" t="n">
         <v>1</v>
@@ -1215,12 +1226,26 @@
         <v>1</v>
       </c>
       <c r="B5" t="n">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="C5" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="D5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" t="n">
+        <v>1</v>
+      </c>
+      <c r="B6" t="n">
+        <v>11</v>
+      </c>
+      <c r="C6" t="n">
+        <v>5</v>
+      </c>
+      <c r="D6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1323,7 +1348,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>308.4300000000008</v>
+        <v>319.9950000000007</v>
       </c>
     </row>
     <row r="8">
@@ -1334,7 +1359,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>316.1650000000008</v>
+        <v>330.6600000000007</v>
       </c>
     </row>
     <row r="9">
@@ -1345,7 +1370,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>276.9749999999995</v>
+        <v>320.6750000000006</v>
       </c>
     </row>
     <row r="10">
@@ -1356,7 +1381,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>299.8550000000008</v>
+        <v>332.9250000000006</v>
       </c>
     </row>
     <row r="11">
@@ -1367,7 +1392,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>286.6150000000008</v>
+        <v>319.7800000000007</v>
       </c>
     </row>
     <row r="12">
@@ -1378,7 +1403,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>67.77500000000072</v>
+        <v>65.27000000000072</v>
       </c>
     </row>
     <row r="13">
@@ -1389,7 +1414,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>73.77000000000072</v>
+        <v>68.8</v>
       </c>
     </row>
     <row r="14">
@@ -1400,7 +1425,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>74.03500000000074</v>
+        <v>67.19500000000073</v>
       </c>
     </row>
     <row r="15">
@@ -1411,7 +1436,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>73.04500000000073</v>
+        <v>69.32500000000073</v>
       </c>
     </row>
     <row r="16">
@@ -1422,7 +1447,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>72.66500000000073</v>
+        <v>68.54000000000073</v>
       </c>
     </row>
     <row r="17">
@@ -1433,7 +1458,7 @@
         <v>1</v>
       </c>
       <c r="C17" t="n">
-        <v>40.35</v>
+        <v>46.91999999999942</v>
       </c>
     </row>
     <row r="18">
@@ -1444,7 +1469,7 @@
         <v>2</v>
       </c>
       <c r="C18" t="n">
-        <v>30.90499999999942</v>
+        <v>36.10499999999942</v>
       </c>
     </row>
     <row r="19">
@@ -1455,7 +1480,7 @@
         <v>3</v>
       </c>
       <c r="C19" t="n">
-        <v>27.59499999999942</v>
+        <v>34.91499999999942</v>
       </c>
     </row>
     <row r="20">
@@ -1466,7 +1491,7 @@
         <v>4</v>
       </c>
       <c r="C20" t="n">
-        <v>31.97499999999942</v>
+        <v>37.48999999999942</v>
       </c>
     </row>
     <row r="21">
@@ -1477,7 +1502,7 @@
         <v>5</v>
       </c>
       <c r="C21" t="n">
-        <v>33.99499999999941</v>
+        <v>39.43499999999941</v>
       </c>
     </row>
     <row r="22">
@@ -1488,7 +1513,7 @@
         <v>1</v>
       </c>
       <c r="C22" t="n">
-        <v>140.4050000000002</v>
+        <v>119.55</v>
       </c>
     </row>
     <row r="23">
@@ -1499,7 +1524,7 @@
         <v>2</v>
       </c>
       <c r="C23" t="n">
-        <v>153.8250000000002</v>
+        <v>116.1599999999989</v>
       </c>
     </row>
     <row r="24">
@@ -1510,7 +1535,7 @@
         <v>3</v>
       </c>
       <c r="C24" t="n">
-        <v>156.3550000000002</v>
+        <v>117.2349999999989</v>
       </c>
     </row>
     <row r="25">
@@ -1521,7 +1546,7 @@
         <v>4</v>
       </c>
       <c r="C25" t="n">
-        <v>157</v>
+        <v>121.4449999999989</v>
       </c>
     </row>
     <row r="26">
@@ -1532,7 +1557,7 @@
         <v>5</v>
       </c>
       <c r="C26" t="n">
-        <v>153.4800000000002</v>
+        <v>120.25</v>
       </c>
     </row>
     <row r="27">
@@ -1598,7 +1623,7 @@
         <v>1</v>
       </c>
       <c r="C32" t="n">
-        <v>144.1300000000006</v>
+        <v>152.1</v>
       </c>
     </row>
     <row r="33">
@@ -1609,7 +1634,7 @@
         <v>2</v>
       </c>
       <c r="C33" t="n">
-        <v>136.6700000000006</v>
+        <v>154.3900000000006</v>
       </c>
     </row>
     <row r="34">
@@ -1620,7 +1645,7 @@
         <v>3</v>
       </c>
       <c r="C34" t="n">
-        <v>117.2199999999993</v>
+        <v>145.6750000000006</v>
       </c>
     </row>
     <row r="35">
@@ -1631,7 +1656,7 @@
         <v>4</v>
       </c>
       <c r="C35" t="n">
-        <v>134.2300000000006</v>
+        <v>153.1150000000006</v>
       </c>
     </row>
     <row r="36">
@@ -1642,7 +1667,7 @@
         <v>5</v>
       </c>
       <c r="C36" t="n">
-        <v>125.7700000000006</v>
+        <v>151.0600000000006</v>
       </c>
     </row>
     <row r="37">
@@ -1653,7 +1678,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>223.4800000000011</v>
+        <v>238.4400000000016</v>
       </c>
     </row>
     <row r="38">
@@ -1664,7 +1689,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>238.5450000000011</v>
+        <v>249.0050000000016</v>
       </c>
     </row>
     <row r="39">
@@ -1675,7 +1700,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>234.3300000000011</v>
+        <v>230.1</v>
       </c>
     </row>
     <row r="40">
@@ -1686,7 +1711,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>246.7700000000011</v>
+        <v>253.1450000000016</v>
       </c>
     </row>
     <row r="41">
@@ -1697,7 +1722,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>235.3350000000011</v>
+        <v>239.4750000000016</v>
       </c>
     </row>
     <row r="42">
@@ -1708,7 +1733,7 @@
         <v>1</v>
       </c>
       <c r="C42" t="n">
-        <v>208.255</v>
+        <v>187.4749999999983</v>
       </c>
     </row>
     <row r="43">
@@ -1719,7 +1744,7 @@
         <v>2</v>
       </c>
       <c r="C43" t="n">
-        <v>212.225</v>
+        <v>195.3199999999983</v>
       </c>
     </row>
     <row r="44">
@@ -1730,7 +1755,7 @@
         <v>3</v>
       </c>
       <c r="C44" t="n">
-        <v>171.3049999999987</v>
+        <v>177.0549999999983</v>
       </c>
     </row>
     <row r="45">
@@ -1741,7 +1766,7 @@
         <v>4</v>
       </c>
       <c r="C45" t="n">
-        <v>193.75</v>
+        <v>185.2149999999983</v>
       </c>
     </row>
     <row r="46">
@@ -1752,7 +1777,7 @@
         <v>5</v>
       </c>
       <c r="C46" t="n">
-        <v>181.3</v>
+        <v>179.1799999999984</v>
       </c>
     </row>
     <row r="47">
@@ -1774,7 +1799,7 @@
         <v>2</v>
       </c>
       <c r="C48" t="n">
-        <v>164.2850000000007</v>
+        <v>164.2850000000008</v>
       </c>
     </row>
     <row r="49">
@@ -1785,7 +1810,7 @@
         <v>3</v>
       </c>
       <c r="C49" t="n">
-        <v>152.1250000000008</v>
+        <v>152.1250000000007</v>
       </c>
     </row>
     <row r="50">
@@ -1818,7 +1843,7 @@
         <v>1</v>
       </c>
       <c r="C52" t="n">
-        <v>213.315</v>
+        <v>210.05</v>
       </c>
     </row>
     <row r="53">
@@ -1829,7 +1854,7 @@
         <v>2</v>
       </c>
       <c r="C53" t="n">
-        <v>222.965</v>
+        <v>213.0699999999999</v>
       </c>
     </row>
     <row r="54">
@@ -1840,7 +1865,7 @@
         <v>3</v>
       </c>
       <c r="C54" t="n">
-        <v>213.855</v>
+        <v>207.4049999999998</v>
       </c>
     </row>
     <row r="55">
@@ -1851,7 +1876,7 @@
         <v>4</v>
       </c>
       <c r="C55" t="n">
-        <v>224.03</v>
+        <v>213.7699999999998</v>
       </c>
     </row>
     <row r="56">
@@ -1862,7 +1887,7 @@
         <v>5</v>
       </c>
       <c r="C56" t="n">
-        <v>210.535</v>
+        <v>203.9749999999999</v>
       </c>
     </row>
     <row r="57">
@@ -1873,7 +1898,7 @@
         <v>1</v>
       </c>
       <c r="C57" t="n">
-        <v>213.315</v>
+        <v>319.9950000000007</v>
       </c>
     </row>
     <row r="58">
@@ -1884,7 +1909,7 @@
         <v>2</v>
       </c>
       <c r="C58" t="n">
-        <v>222.965</v>
+        <v>330.6600000000007</v>
       </c>
     </row>
     <row r="59">
@@ -1895,7 +1920,7 @@
         <v>3</v>
       </c>
       <c r="C59" t="n">
-        <v>213.855</v>
+        <v>320.6750000000006</v>
       </c>
     </row>
     <row r="60">
@@ -1906,7 +1931,7 @@
         <v>4</v>
       </c>
       <c r="C60" t="n">
-        <v>224.03</v>
+        <v>332.9250000000006</v>
       </c>
     </row>
     <row r="61">
@@ -1917,7 +1942,7 @@
         <v>5</v>
       </c>
       <c r="C61" t="n">
-        <v>210.535</v>
+        <v>319.7800000000007</v>
       </c>
     </row>
     <row r="62">
@@ -1928,7 +1953,7 @@
         <v>1</v>
       </c>
       <c r="C62" t="n">
-        <v>308.4300000000008</v>
+        <v>187.4749999999983</v>
       </c>
     </row>
     <row r="63">
@@ -1939,7 +1964,7 @@
         <v>2</v>
       </c>
       <c r="C63" t="n">
-        <v>316.1650000000008</v>
+        <v>195.3199999999983</v>
       </c>
     </row>
     <row r="64">
@@ -1950,7 +1975,7 @@
         <v>3</v>
       </c>
       <c r="C64" t="n">
-        <v>276.9749999999995</v>
+        <v>177.0549999999983</v>
       </c>
     </row>
     <row r="65">
@@ -1961,7 +1986,7 @@
         <v>4</v>
       </c>
       <c r="C65" t="n">
-        <v>299.8550000000008</v>
+        <v>185.2149999999983</v>
       </c>
     </row>
     <row r="66">
@@ -1972,7 +1997,7 @@
         <v>5</v>
       </c>
       <c r="C66" t="n">
-        <v>286.6150000000008</v>
+        <v>179.1799999999984</v>
       </c>
     </row>
     <row r="67">
@@ -1983,7 +2008,7 @@
         <v>1</v>
       </c>
       <c r="C67" t="n">
-        <v>223.4800000000011</v>
+        <v>238.4400000000016</v>
       </c>
     </row>
     <row r="68">
@@ -1994,7 +2019,7 @@
         <v>2</v>
       </c>
       <c r="C68" t="n">
-        <v>238.5450000000011</v>
+        <v>249.0050000000016</v>
       </c>
     </row>
     <row r="69">
@@ -2005,7 +2030,7 @@
         <v>3</v>
       </c>
       <c r="C69" t="n">
-        <v>234.3300000000011</v>
+        <v>230.1</v>
       </c>
     </row>
     <row r="70">
@@ -2016,7 +2041,7 @@
         <v>4</v>
       </c>
       <c r="C70" t="n">
-        <v>246.7700000000011</v>
+        <v>253.1450000000016</v>
       </c>
     </row>
     <row r="71">
@@ -2027,7 +2052,7 @@
         <v>5</v>
       </c>
       <c r="C71" t="n">
-        <v>235.3350000000011</v>
+        <v>239.4750000000016</v>
       </c>
     </row>
   </sheetData>
@@ -2074,7 +2099,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>0</v>
+        <v>44.99500000000069</v>
       </c>
     </row>
     <row r="3">
@@ -2085,7 +2110,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>0</v>
+        <v>55.66000000000065</v>
       </c>
     </row>
     <row r="4">
@@ -2096,7 +2121,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>0</v>
+        <v>45.67500000000064</v>
       </c>
     </row>
     <row r="5">
@@ -2107,7 +2132,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>0</v>
+        <v>57.92500000000064</v>
       </c>
     </row>
     <row r="6">
@@ -2118,7 +2143,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>0</v>
+        <v>44.78000000000065</v>
       </c>
     </row>
     <row r="7">
@@ -2129,7 +2154,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>33.43000000000062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="8">
@@ -2140,7 +2165,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>41.16500000000062</v>
+        <v>0</v>
       </c>
     </row>
     <row r="9">
@@ -2151,7 +2176,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>1.974999999999488</v>
+        <v>0</v>
       </c>
     </row>
     <row r="10">
@@ -2162,7 +2187,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>24.85500000000059</v>
+        <v>0</v>
       </c>
     </row>
     <row r="11">
@@ -2173,7 +2198,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>11.61500000000058</v>
+        <v>0</v>
       </c>
     </row>
     <row r="12">
@@ -2275,7 +2300,7 @@
         <v>1</v>
       </c>
       <c r="C2" t="n">
-        <v>9.77</v>
+        <v>0</v>
       </c>
     </row>
     <row r="3">
@@ -2286,7 +2311,7 @@
         <v>2</v>
       </c>
       <c r="C3" t="n">
-        <v>13.65</v>
+        <v>0</v>
       </c>
     </row>
     <row r="4">
@@ -2297,7 +2322,7 @@
         <v>3</v>
       </c>
       <c r="C4" t="n">
-        <v>7.6</v>
+        <v>0</v>
       </c>
     </row>
     <row r="5">
@@ -2308,7 +2333,7 @@
         <v>4</v>
       </c>
       <c r="C5" t="n">
-        <v>13.05</v>
+        <v>0</v>
       </c>
     </row>
     <row r="6">
@@ -2319,7 +2344,7 @@
         <v>5</v>
       </c>
       <c r="C6" t="n">
-        <v>10.49</v>
+        <v>0</v>
       </c>
     </row>
     <row r="7">
@@ -2330,7 +2355,7 @@
         <v>1</v>
       </c>
       <c r="C7" t="n">
-        <v>13.7</v>
+        <v>16.205</v>
       </c>
     </row>
     <row r="8">
@@ -2341,7 +2366,7 @@
         <v>2</v>
       </c>
       <c r="C8" t="n">
-        <v>6.91</v>
+        <v>11.88</v>
       </c>
     </row>
     <row r="9">
@@ -2352,7 +2377,7 @@
         <v>3</v>
       </c>
       <c r="C9" t="n">
-        <v>10.68</v>
+        <v>17.52</v>
       </c>
     </row>
     <row r="10">
@@ -2363,7 +2388,7 @@
         <v>4</v>
       </c>
       <c r="C10" t="n">
-        <v>7.39</v>
+        <v>11.11</v>
       </c>
     </row>
     <row r="11">
@@ -2374,7 +2399,7 @@
         <v>5</v>
       </c>
       <c r="C11" t="n">
-        <v>14.68</v>
+        <v>18.805</v>
       </c>
     </row>
     <row r="12">
@@ -2385,7 +2410,7 @@
         <v>1</v>
       </c>
       <c r="C12" t="n">
-        <v>6.57</v>
+        <v>0</v>
       </c>
     </row>
     <row r="13">
@@ -2396,7 +2421,7 @@
         <v>2</v>
       </c>
       <c r="C13" t="n">
-        <v>5.2</v>
+        <v>0</v>
       </c>
     </row>
     <row r="14">
@@ -2407,7 +2432,7 @@
         <v>3</v>
       </c>
       <c r="C14" t="n">
-        <v>7.32</v>
+        <v>0</v>
       </c>
     </row>
     <row r="15">
@@ -2418,7 +2443,7 @@
         <v>4</v>
       </c>
       <c r="C15" t="n">
-        <v>5.515</v>
+        <v>0</v>
       </c>
     </row>
     <row r="16">
@@ -2429,7 +2454,7 @@
         <v>5</v>
       </c>
       <c r="C16" t="n">
-        <v>5.44</v>
+        <v>0</v>
       </c>
     </row>
     <row r="17">
@@ -2550,7 +2575,7 @@
         <v>1</v>
       </c>
       <c r="C27" t="n">
-        <v>3.6</v>
+        <v>20.55</v>
       </c>
     </row>
     <row r="28">
@@ -2561,7 +2586,7 @@
         <v>2</v>
       </c>
       <c r="C28" t="n">
-        <v>6.475</v>
+        <v>26.65</v>
       </c>
     </row>
     <row r="29">
@@ -2572,7 +2597,7 @@
         <v>3</v>
       </c>
       <c r="C29" t="n">
-        <v>4.165</v>
+        <v>15.31</v>
       </c>
     </row>
     <row r="30">
@@ -2583,7 +2608,7 @@
         <v>4</v>
       </c>
       <c r="C30" t="n">
-        <v>6.58</v>
+        <v>25.045</v>
       </c>
     </row>
     <row r="31">
@@ -2594,7 +2619,7 @@
         <v>5</v>
       </c>
       <c r="C31" t="n">
-        <v>3.005</v>
+        <v>12.26</v>
       </c>
     </row>
     <row r="32">
@@ -2660,7 +2685,7 @@
         <v>1</v>
       </c>
       <c r="C37" t="n">
-        <v>3.8</v>
+        <v>0</v>
       </c>
     </row>
     <row r="38">
@@ -2671,7 +2696,7 @@
         <v>2</v>
       </c>
       <c r="C38" t="n">
-        <v>3.605</v>
+        <v>0</v>
       </c>
     </row>
     <row r="39">
@@ -2682,7 +2707,7 @@
         <v>3</v>
       </c>
       <c r="C39" t="n">
-        <v>5.735</v>
+        <v>0</v>
       </c>
     </row>
     <row r="40">
@@ -2693,7 +2718,7 @@
         <v>4</v>
       </c>
       <c r="C40" t="n">
-        <v>4.25</v>
+        <v>0</v>
       </c>
     </row>
     <row r="41">
@@ -2704,7 +2729,7 @@
         <v>5</v>
       </c>
       <c r="C41" t="n">
-        <v>3.4</v>
+        <v>0</v>
       </c>
     </row>
     <row r="42">

--- a/results/I2_N10_T100_C275_0_P6_res.xlsx
+++ b/results/I2_N10_T100_C275_0_P6_res.xlsx
@@ -483,7 +483,7 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>0.0130000114440918</v>
+        <v>0.03399991989135742</v>
       </c>
     </row>
     <row r="5">
